--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ephb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>8.037999999999998</v>
+        <v>0.1007466666666667</v>
       </c>
       <c r="H2">
-        <v>24.114</v>
+        <v>0.30224</v>
       </c>
       <c r="I2">
-        <v>0.3841084334571443</v>
+        <v>0.009882710821300227</v>
       </c>
       <c r="J2">
-        <v>0.3872543627141208</v>
+        <v>0.01011406364163447</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.017772</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N2">
-        <v>0.053316</v>
+        <v>0.07864</v>
       </c>
       <c r="O2">
-        <v>0.002629212535656932</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P2">
-        <v>0.002699072137000843</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q2">
-        <v>0.142851336</v>
+        <v>0.002640905955555556</v>
       </c>
       <c r="R2">
-        <v>1.285662024</v>
+        <v>0.0237681536</v>
       </c>
       <c r="S2">
-        <v>0.00100990270829707</v>
+        <v>3.648359465151943E-05</v>
       </c>
       <c r="T2">
-        <v>0.001045227460333702</v>
+        <v>3.898560682614712E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>8.037999999999998</v>
+        <v>0.1007466666666667</v>
       </c>
       <c r="H3">
-        <v>24.114</v>
+        <v>0.30224</v>
       </c>
       <c r="I3">
-        <v>0.3841084334571443</v>
+        <v>0.009882710821300227</v>
       </c>
       <c r="J3">
-        <v>0.3872543627141208</v>
+        <v>0.01011406364163447</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>18.522097</v>
       </c>
       <c r="O3">
-        <v>0.9133942834993933</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P3">
-        <v>0.9376636644070619</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q3">
-        <v>49.62687189533333</v>
+        <v>0.6220131774755556</v>
       </c>
       <c r="R3">
-        <v>446.641847058</v>
+        <v>5.598118597280001</v>
       </c>
       <c r="S3">
-        <v>0.3508424473636627</v>
+        <v>0.008592989306257938</v>
       </c>
       <c r="T3">
-        <v>0.363114344800144</v>
+        <v>0.009182288800073235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,75 +649,75 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>8.037999999999998</v>
+        <v>0.1007466666666667</v>
       </c>
       <c r="H4">
-        <v>24.114</v>
+        <v>0.30224</v>
       </c>
       <c r="I4">
-        <v>0.3841084334571443</v>
+        <v>0.009882710821300227</v>
       </c>
       <c r="J4">
-        <v>0.3872543627141208</v>
+        <v>0.01011406364163447</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03562666666666667</v>
+        <v>0.900447</v>
       </c>
       <c r="N4">
-        <v>0.10688</v>
+        <v>1.800894</v>
       </c>
       <c r="O4">
-        <v>0.005270654884293887</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P4">
-        <v>0.005410699039737605</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q4">
-        <v>0.2863671466666666</v>
+        <v>0.09071703376</v>
       </c>
       <c r="R4">
-        <v>2.57730432</v>
+        <v>0.5443022025600001</v>
       </c>
       <c r="S4">
-        <v>0.002024502990899371</v>
+        <v>0.00125323792039077</v>
       </c>
       <c r="T4">
-        <v>0.002095316808471492</v>
+        <v>0.000892789234735089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,54 +732,54 @@
         <v>24.114</v>
       </c>
       <c r="I5">
-        <v>0.3841084334571443</v>
+        <v>0.7884849415856062</v>
       </c>
       <c r="J5">
-        <v>0.3872543627141208</v>
+        <v>0.8069432591793727</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.52486</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N5">
-        <v>1.04972</v>
+        <v>0.07864</v>
       </c>
       <c r="O5">
-        <v>0.07764846339550401</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P5">
-        <v>0.05314108342059654</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q5">
-        <v>4.218824679999999</v>
+        <v>0.2107027733333333</v>
       </c>
       <c r="R5">
-        <v>25.31294808</v>
+        <v>1.89632496</v>
       </c>
       <c r="S5">
-        <v>0.02982542963520145</v>
+        <v>0.002910817236059884</v>
       </c>
       <c r="T5">
-        <v>0.02057911639398105</v>
+        <v>0.003110438469447167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>24.114</v>
       </c>
       <c r="I6">
-        <v>0.3841084334571443</v>
+        <v>0.7884849415856062</v>
       </c>
       <c r="J6">
-        <v>0.3872543627141208</v>
+        <v>0.8069432591793727</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.007147333333333333</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N6">
-        <v>0.021442</v>
+        <v>18.522097</v>
       </c>
       <c r="O6">
-        <v>0.001057385685151848</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P6">
-        <v>0.001085480995603047</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q6">
-        <v>0.05745026533333332</v>
+        <v>49.62687189533333</v>
       </c>
       <c r="R6">
-        <v>0.517052388</v>
+        <v>446.641847058</v>
       </c>
       <c r="S6">
-        <v>0.0004061507590836856</v>
+        <v>0.6855854424665956</v>
       </c>
       <c r="T6">
-        <v>0.0004203572511905475</v>
+        <v>0.7326022767501521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,72 +835,72 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8133796666666666</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H7">
-        <v>2.440139</v>
+        <v>24.114</v>
       </c>
       <c r="I7">
-        <v>0.03886862273814725</v>
+        <v>0.7884849415856062</v>
       </c>
       <c r="J7">
-        <v>0.03918696497382733</v>
+        <v>0.8069432591793727</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.017772</v>
+        <v>0.900447</v>
       </c>
       <c r="N7">
-        <v>0.053316</v>
+        <v>1.800894</v>
       </c>
       <c r="O7">
-        <v>0.002629212535656932</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P7">
-        <v>0.002699072137000843</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q7">
-        <v>0.014455383436</v>
+        <v>7.237792985999999</v>
       </c>
       <c r="R7">
-        <v>0.130098450924</v>
+        <v>43.42675791599999</v>
       </c>
       <c r="S7">
-        <v>0.0001021938701468568</v>
+        <v>0.09998868188295071</v>
       </c>
       <c r="T7">
-        <v>0.0001057684452944853</v>
+        <v>0.07123054395977348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,57 +912,57 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.8133796666666666</v>
+        <v>0.3010376666666667</v>
       </c>
       <c r="H8">
-        <v>2.440139</v>
+        <v>0.9031130000000001</v>
       </c>
       <c r="I8">
-        <v>0.03886862273814725</v>
+        <v>0.02953018997471186</v>
       </c>
       <c r="J8">
-        <v>0.03918696497382733</v>
+        <v>0.03022148741922787</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>6.174032333333334</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N8">
-        <v>18.522097</v>
+        <v>0.07864</v>
       </c>
       <c r="O8">
-        <v>0.9133942834993933</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P8">
-        <v>0.9376636644070619</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q8">
-        <v>5.021832361275889</v>
+        <v>0.007891200702222224</v>
       </c>
       <c r="R8">
-        <v>45.196491251483</v>
+        <v>0.07102080632</v>
       </c>
       <c r="S8">
-        <v>0.03550237781651824</v>
+        <v>0.0001090153805469748</v>
       </c>
       <c r="T8">
-        <v>0.03674419317435012</v>
+        <v>0.0001164915574959708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,60 +974,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.8133796666666666</v>
+        <v>0.3010376666666667</v>
       </c>
       <c r="H9">
-        <v>2.440139</v>
+        <v>0.9031130000000001</v>
       </c>
       <c r="I9">
-        <v>0.03886862273814725</v>
+        <v>0.02953018997471186</v>
       </c>
       <c r="J9">
-        <v>0.03918696497382733</v>
+        <v>0.03022148741922787</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03562666666666667</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N9">
-        <v>0.10688</v>
+        <v>18.522097</v>
       </c>
       <c r="O9">
-        <v>0.005270654884293887</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P9">
-        <v>0.005410699039737605</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q9">
-        <v>0.02897800625777778</v>
+        <v>1.858616287551223</v>
       </c>
       <c r="R9">
-        <v>0.26080205632</v>
+        <v>16.727546587961</v>
       </c>
       <c r="S9">
-        <v>0.0002048630962805922</v>
+        <v>0.02567641725563303</v>
       </c>
       <c r="T9">
-        <v>0.0002120288737541187</v>
+        <v>0.0274372829046471</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.8133796666666666</v>
+        <v>0.3010376666666667</v>
       </c>
       <c r="H10">
-        <v>2.440139</v>
+        <v>0.9031130000000001</v>
       </c>
       <c r="I10">
-        <v>0.03886862273814725</v>
+        <v>0.02953018997471186</v>
       </c>
       <c r="J10">
-        <v>0.03918696497382733</v>
+        <v>0.03022148741922787</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,246 +1054,246 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.52486</v>
+        <v>0.900447</v>
       </c>
       <c r="N10">
-        <v>1.04972</v>
+        <v>1.800894</v>
       </c>
       <c r="O10">
-        <v>0.07764846339550401</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P10">
-        <v>0.05314108342059654</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q10">
-        <v>0.4269104518466666</v>
+        <v>0.271068463837</v>
       </c>
       <c r="R10">
-        <v>2.56146271108</v>
+        <v>1.626410783022</v>
       </c>
       <c r="S10">
-        <v>0.003018088829916681</v>
+        <v>0.003744757338531861</v>
       </c>
       <c r="T10">
-        <v>0.002082437774674153</v>
+        <v>0.002667712957084802</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.69956</v>
+      </c>
+      <c r="H11">
+        <v>1.39912</v>
+      </c>
+      <c r="I11">
+        <v>0.06862310596362613</v>
+      </c>
+      <c r="J11">
+        <v>0.04681970858352177</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G11">
-        <v>0.8133796666666666</v>
-      </c>
-      <c r="H11">
-        <v>2.440139</v>
-      </c>
-      <c r="I11">
-        <v>0.03886862273814725</v>
-      </c>
-      <c r="J11">
-        <v>0.03918696497382733</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M11">
-        <v>0.007147333333333333</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N11">
-        <v>0.021442</v>
+        <v>0.07864</v>
       </c>
       <c r="O11">
-        <v>0.001057385685151848</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P11">
-        <v>0.001085480995603047</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q11">
-        <v>0.005813495604222221</v>
+        <v>0.01833779946666667</v>
       </c>
       <c r="R11">
-        <v>0.052321460438</v>
+        <v>0.1100267968</v>
       </c>
       <c r="S11">
-        <v>4.109912528488453E-05</v>
+        <v>0.0002533330810721639</v>
       </c>
       <c r="T11">
-        <v>4.253670575445184E-05</v>
+        <v>0.0001804709575919764</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5099975</v>
+        <v>0.69956</v>
       </c>
       <c r="H12">
-        <v>1.019995</v>
+        <v>1.39912</v>
       </c>
       <c r="I12">
-        <v>0.02437103020553123</v>
+        <v>0.06862310596362613</v>
       </c>
       <c r="J12">
-        <v>0.01638042272939329</v>
+        <v>0.04681970858352177</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.017772</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N12">
-        <v>0.053316</v>
+        <v>18.522097</v>
       </c>
       <c r="O12">
-        <v>0.002629212535656932</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P12">
-        <v>0.002699072137000843</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q12">
-        <v>0.009063675570000001</v>
+        <v>4.319106059106667</v>
       </c>
       <c r="R12">
-        <v>0.05438205342</v>
+        <v>25.91463635464</v>
       </c>
       <c r="S12">
-        <v>6.407661812325642E-05</v>
+        <v>0.05966759792634135</v>
       </c>
       <c r="T12">
-        <v>4.421194258120073E-05</v>
+        <v>0.0425063654908631</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5099975</v>
+        <v>0.69956</v>
       </c>
       <c r="H13">
-        <v>1.019995</v>
+        <v>1.39912</v>
       </c>
       <c r="I13">
-        <v>0.02437103020553123</v>
+        <v>0.06862310596362613</v>
       </c>
       <c r="J13">
-        <v>0.01638042272939329</v>
+        <v>0.04681970858352177</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.174032333333334</v>
+        <v>0.900447</v>
       </c>
       <c r="N13">
-        <v>18.522097</v>
+        <v>1.800894</v>
       </c>
       <c r="O13">
-        <v>0.9133942834993933</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P13">
-        <v>0.9376636644070619</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q13">
-        <v>3.148741054919167</v>
+        <v>0.6299167033199999</v>
       </c>
       <c r="R13">
-        <v>18.892446329515</v>
+        <v>2.51966681328</v>
       </c>
       <c r="S13">
-        <v>0.02226035967272327</v>
+        <v>0.008702174956212616</v>
       </c>
       <c r="T13">
-        <v>0.01535932720097964</v>
+        <v>0.004132872135066694</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5099975</v>
+        <v>1.054889666666667</v>
       </c>
       <c r="H14">
-        <v>1.019995</v>
+        <v>3.164669</v>
       </c>
       <c r="I14">
-        <v>0.02437103020553123</v>
+        <v>0.1034790516547557</v>
       </c>
       <c r="J14">
-        <v>0.01638042272939329</v>
+        <v>0.1059014811762431</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,462 +1302,152 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03562666666666667</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N14">
-        <v>0.10688</v>
+        <v>0.07864</v>
       </c>
       <c r="O14">
-        <v>0.005270654884293887</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P14">
-        <v>0.005410699039737605</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q14">
-        <v>0.01816951093333333</v>
+        <v>0.02765217446222222</v>
       </c>
       <c r="R14">
-        <v>0.1090170656</v>
+        <v>0.24886957016</v>
       </c>
       <c r="S14">
-        <v>0.000128451289388057</v>
+        <v>0.0003820093336495149</v>
       </c>
       <c r="T14">
-        <v>8.86295375324243E-05</v>
+        <v>0.0004082071908711493</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5099975</v>
+        <v>1.054889666666667</v>
       </c>
       <c r="H15">
-        <v>1.019995</v>
+        <v>3.164669</v>
       </c>
       <c r="I15">
-        <v>0.02437103020553123</v>
+        <v>0.1034790516547557</v>
       </c>
       <c r="J15">
-        <v>0.01638042272939329</v>
+        <v>0.1059014811762431</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.52486</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N15">
-        <v>1.04972</v>
+        <v>18.522097</v>
       </c>
       <c r="O15">
-        <v>0.07764846339550401</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P15">
-        <v>0.05314108342059654</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q15">
-        <v>0.26767728785</v>
+        <v>6.512922910099223</v>
       </c>
       <c r="R15">
-        <v>1.0707091514</v>
+        <v>58.61630619089301</v>
       </c>
       <c r="S15">
-        <v>0.001892373046824914</v>
+        <v>0.08997474482148624</v>
       </c>
       <c r="T15">
-        <v>0.0008704734107273244</v>
+        <v>0.09614513206272818</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5099975</v>
+        <v>1.054889666666667</v>
       </c>
       <c r="H16">
-        <v>1.019995</v>
+        <v>3.164669</v>
       </c>
       <c r="I16">
-        <v>0.02437103020553123</v>
+        <v>0.1034790516547557</v>
       </c>
       <c r="J16">
-        <v>0.01638042272939329</v>
+        <v>0.1059014811762431</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.007147333333333333</v>
+        <v>0.900447</v>
       </c>
       <c r="N16">
-        <v>0.021442</v>
+        <v>1.800894</v>
       </c>
       <c r="O16">
-        <v>0.001057385685151848</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P16">
-        <v>0.001085480995603047</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q16">
-        <v>0.003645122131666666</v>
+        <v>0.9498722356810001</v>
       </c>
       <c r="R16">
-        <v>0.02187073279</v>
+        <v>5.699233414086</v>
       </c>
       <c r="S16">
-        <v>2.576957847173202E-05</v>
+        <v>0.01312229749961996</v>
       </c>
       <c r="T16">
-        <v>1.778063757270061E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>11.56500533333333</v>
-      </c>
-      <c r="H17">
-        <v>34.695016</v>
-      </c>
-      <c r="I17">
-        <v>0.5526519135991772</v>
-      </c>
-      <c r="J17">
-        <v>0.5571782495826586</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.017772</v>
-      </c>
-      <c r="N17">
-        <v>0.053316</v>
-      </c>
-      <c r="O17">
-        <v>0.002629212535656932</v>
-      </c>
-      <c r="P17">
-        <v>0.002699072137000843</v>
-      </c>
-      <c r="Q17">
-        <v>0.205533274784</v>
-      </c>
-      <c r="R17">
-        <v>1.849799473056</v>
-      </c>
-      <c r="S17">
-        <v>0.001453039339089748</v>
-      </c>
-      <c r="T17">
-        <v>0.001503864288791456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>11.56500533333333</v>
-      </c>
-      <c r="H18">
-        <v>34.695016</v>
-      </c>
-      <c r="I18">
-        <v>0.5526519135991772</v>
-      </c>
-      <c r="J18">
-        <v>0.5571782495826586</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>6.174032333333334</v>
-      </c>
-      <c r="N18">
-        <v>18.522097</v>
-      </c>
-      <c r="O18">
-        <v>0.9133942834993933</v>
-      </c>
-      <c r="P18">
-        <v>0.9376636644070619</v>
-      </c>
-      <c r="Q18">
-        <v>71.40271686317246</v>
-      </c>
-      <c r="R18">
-        <v>642.6244517685521</v>
-      </c>
-      <c r="S18">
-        <v>0.5047890986464891</v>
-      </c>
-      <c r="T18">
-        <v>0.5224457992315882</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>11.56500533333333</v>
-      </c>
-      <c r="H19">
-        <v>34.695016</v>
-      </c>
-      <c r="I19">
-        <v>0.5526519135991772</v>
-      </c>
-      <c r="J19">
-        <v>0.5571782495826586</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.03562666666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.10688</v>
-      </c>
-      <c r="O19">
-        <v>0.005270654884293887</v>
-      </c>
-      <c r="P19">
-        <v>0.005410699039737605</v>
-      </c>
-      <c r="Q19">
-        <v>0.4120225900088889</v>
-      </c>
-      <c r="R19">
-        <v>3.70820331008</v>
-      </c>
-      <c r="S19">
-        <v>0.002912837507725866</v>
-      </c>
-      <c r="T19">
-        <v>0.003014723819979571</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>11.56500533333333</v>
-      </c>
-      <c r="H20">
-        <v>34.695016</v>
-      </c>
-      <c r="I20">
-        <v>0.5526519135991772</v>
-      </c>
-      <c r="J20">
-        <v>0.5571782495826586</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.52486</v>
-      </c>
-      <c r="N20">
-        <v>1.04972</v>
-      </c>
-      <c r="O20">
-        <v>0.07764846339550401</v>
-      </c>
-      <c r="P20">
-        <v>0.05314108342059654</v>
-      </c>
-      <c r="Q20">
-        <v>6.070008699253333</v>
-      </c>
-      <c r="R20">
-        <v>36.42005219552</v>
-      </c>
-      <c r="S20">
-        <v>0.04291257188356095</v>
-      </c>
-      <c r="T20">
-        <v>0.02960905584121402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>11.56500533333333</v>
-      </c>
-      <c r="H21">
-        <v>34.695016</v>
-      </c>
-      <c r="I21">
-        <v>0.5526519135991772</v>
-      </c>
-      <c r="J21">
-        <v>0.5571782495826586</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.007147333333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.021442</v>
-      </c>
-      <c r="O21">
-        <v>0.001057385685151848</v>
-      </c>
-      <c r="P21">
-        <v>0.001085480995603047</v>
-      </c>
-      <c r="Q21">
-        <v>0.08265894811911111</v>
-      </c>
-      <c r="R21">
-        <v>0.7439305330720001</v>
-      </c>
-      <c r="S21">
-        <v>0.0005843662223115459</v>
-      </c>
-      <c r="T21">
-        <v>0.0006048064010853475</v>
+        <v>0.00934814192264379</v>
       </c>
     </row>
   </sheetData>
